--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H2">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I2">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J2">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>425.2761631912819</v>
+        <v>518.8167005223587</v>
       </c>
       <c r="R2">
-        <v>425.2761631912819</v>
+        <v>3112.900203134152</v>
       </c>
       <c r="S2">
-        <v>0.245421120534043</v>
+        <v>0.215069857324282</v>
       </c>
       <c r="T2">
-        <v>0.245421120534043</v>
+        <v>0.1680201415429333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H3">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I3">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J3">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>610.5942641021995</v>
+        <v>770.7071233571842</v>
       </c>
       <c r="R3">
-        <v>610.5942641021995</v>
+        <v>6936.364110214658</v>
       </c>
       <c r="S3">
-        <v>0.3523656895395288</v>
+        <v>0.319488310403944</v>
       </c>
       <c r="T3">
-        <v>0.3523656895395288</v>
+        <v>0.3743932678658262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H4">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I4">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J4">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>63.32434776114749</v>
+        <v>74.91072076950056</v>
       </c>
       <c r="R4">
-        <v>63.32434776114749</v>
+        <v>674.196486925505</v>
       </c>
       <c r="S4">
-        <v>0.03654362442514348</v>
+        <v>0.03105342987558917</v>
       </c>
       <c r="T4">
-        <v>0.03654362442514348</v>
+        <v>0.03639004843358608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H5">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I5">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J5">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>86.5983296649223</v>
+        <v>103.3100131174847</v>
       </c>
       <c r="R5">
-        <v>86.5983296649223</v>
+        <v>929.7901180573618</v>
       </c>
       <c r="S5">
-        <v>0.04997472452549011</v>
+        <v>0.04282604966065388</v>
       </c>
       <c r="T5">
-        <v>0.04997472452549011</v>
+        <v>0.05018582577235486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H6">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I6">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J6">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>214.3848583259398</v>
+        <v>255.3946159634287</v>
       </c>
       <c r="R6">
-        <v>214.3848583259398</v>
+        <v>2298.551543670858</v>
       </c>
       <c r="S6">
-        <v>0.123718601487239</v>
+        <v>0.1058710784778935</v>
       </c>
       <c r="T6">
-        <v>0.123718601487239</v>
+        <v>0.1240653186769258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H7">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I7">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J7">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N7">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O7">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P7">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q7">
-        <v>181.3615380038091</v>
+        <v>215.5720767505468</v>
       </c>
       <c r="R7">
-        <v>181.3615380038091</v>
+        <v>1293.432460503281</v>
       </c>
       <c r="S7">
-        <v>0.1046612900771785</v>
+        <v>0.08936307513455079</v>
       </c>
       <c r="T7">
-        <v>0.1046612900771785</v>
+        <v>0.06981357926964037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H8">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I8">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J8">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N8">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O8">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P8">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q8">
-        <v>40.68541130476822</v>
+        <v>42.961682276812</v>
       </c>
       <c r="R8">
-        <v>40.68541130476822</v>
+        <v>257.770093660872</v>
       </c>
       <c r="S8">
-        <v>0.02347900046143317</v>
+        <v>0.01780930118167408</v>
       </c>
       <c r="T8">
-        <v>0.02347900046143317</v>
+        <v>0.01391325284981145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H9">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I9">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J9">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N9">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P9">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q9">
-        <v>58.41446317826338</v>
+        <v>63.81998599661534</v>
       </c>
       <c r="R9">
-        <v>58.41446317826338</v>
+        <v>574.379873969538</v>
       </c>
       <c r="S9">
-        <v>0.03371019645452323</v>
+        <v>0.02645588561222156</v>
       </c>
       <c r="T9">
-        <v>0.03371019645452323</v>
+        <v>0.03100240336217901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H10">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I10">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J10">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N10">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O10">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P10">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q10">
-        <v>6.058127300000245</v>
+        <v>6.203136062478334</v>
       </c>
       <c r="R10">
-        <v>6.058127300000245</v>
+        <v>55.828224562305</v>
       </c>
       <c r="S10">
-        <v>0.003496063308949679</v>
+        <v>0.00257144302906423</v>
       </c>
       <c r="T10">
-        <v>0.003496063308949679</v>
+        <v>0.003013352687504998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H11">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I11">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J11">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N11">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O11">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P11">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q11">
-        <v>8.284707598668211</v>
+        <v>8.554797783298</v>
       </c>
       <c r="R11">
-        <v>8.284707598668211</v>
+        <v>76.99318004968198</v>
       </c>
       <c r="S11">
-        <v>0.004780992677568753</v>
+        <v>0.003546298985440416</v>
       </c>
       <c r="T11">
-        <v>0.004780992677568753</v>
+        <v>0.004155740359669543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H12">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I12">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J12">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N12">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O12">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P12">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q12">
-        <v>20.50981666372439</v>
+        <v>21.14847562767766</v>
       </c>
       <c r="R12">
-        <v>20.50981666372439</v>
+        <v>190.336280649099</v>
       </c>
       <c r="S12">
-        <v>0.01183593773464097</v>
+        <v>0.008766872059614192</v>
       </c>
       <c r="T12">
-        <v>0.01183593773464097</v>
+        <v>0.01027348348116603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.495079</v>
+      </c>
+      <c r="H13">
+        <v>1.485237</v>
+      </c>
+      <c r="I13">
+        <v>0.06654969381159948</v>
+      </c>
+      <c r="J13">
+        <v>0.06813928953393372</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>36.0566465</v>
+      </c>
+      <c r="N13">
+        <v>72.113293</v>
+      </c>
+      <c r="O13">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P13">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q13">
+        <v>17.8508884925735</v>
+      </c>
+      <c r="R13">
+        <v>107.105330955441</v>
+      </c>
+      <c r="S13">
+        <v>0.007399892943584991</v>
+      </c>
+      <c r="T13">
+        <v>0.005781056793602698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.334435</v>
+      </c>
+      <c r="I14">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J14">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>86.777428</v>
+      </c>
+      <c r="N14">
+        <v>173.554856</v>
+      </c>
+      <c r="O14">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P14">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q14">
+        <v>38.59961237772666</v>
+      </c>
+      <c r="R14">
+        <v>231.59767426636</v>
+      </c>
+      <c r="S14">
+        <v>0.01600105223770163</v>
+      </c>
+      <c r="T14">
+        <v>0.01250058513667391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.334435</v>
+      </c>
+      <c r="I15">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J15">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N15">
+        <v>386.726074</v>
+      </c>
+      <c r="O15">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P15">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q15">
+        <v>57.34008983979889</v>
+      </c>
+      <c r="R15">
+        <v>516.06080855819</v>
+      </c>
+      <c r="S15">
+        <v>0.0237697146764758</v>
+      </c>
+      <c r="T15">
+        <v>0.02785460645715758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.334435</v>
+      </c>
+      <c r="I16">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J16">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N16">
+        <v>37.588765</v>
+      </c>
+      <c r="O16">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P16">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q16">
+        <v>5.573307069197223</v>
+      </c>
+      <c r="R16">
+        <v>50.159763622775</v>
+      </c>
+      <c r="S16">
+        <v>0.002310354225278071</v>
+      </c>
+      <c r="T16">
+        <v>0.002707395044394082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.334435</v>
+      </c>
+      <c r="I17">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J17">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.279662</v>
+      </c>
+      <c r="N17">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P17">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q17">
+        <v>7.686195253656666</v>
+      </c>
+      <c r="R17">
+        <v>69.17575728290998</v>
+      </c>
+      <c r="S17">
+        <v>0.003186229192133095</v>
+      </c>
+      <c r="T17">
+        <v>0.003733791567847844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.334435</v>
+      </c>
+      <c r="I18">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J18">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N18">
+        <v>128.152127</v>
+      </c>
+      <c r="O18">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P18">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q18">
+        <v>19.00118706591611</v>
+      </c>
+      <c r="R18">
+        <v>171.010683593245</v>
+      </c>
+      <c r="S18">
+        <v>0.007876736788048821</v>
+      </c>
+      <c r="T18">
+        <v>0.009230375979853579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.334435</v>
+      </c>
+      <c r="I19">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J19">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>36.0566465</v>
+      </c>
+      <c r="N19">
+        <v>72.113293</v>
+      </c>
+      <c r="O19">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P19">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q19">
+        <v>16.03841702407583</v>
+      </c>
+      <c r="R19">
+        <v>96.230502144455</v>
+      </c>
+      <c r="S19">
+        <v>0.006648552480292935</v>
+      </c>
+      <c r="T19">
+        <v>0.005194083181587328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5206415</v>
+      </c>
+      <c r="H20">
+        <v>1.041283</v>
+      </c>
+      <c r="I20">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J20">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.777428</v>
+      </c>
+      <c r="N20">
+        <v>173.554856</v>
+      </c>
+      <c r="O20">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P20">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q20">
+        <v>45.179930280062</v>
+      </c>
+      <c r="R20">
+        <v>180.719721120248</v>
+      </c>
+      <c r="S20">
+        <v>0.01872885192298313</v>
+      </c>
+      <c r="T20">
+        <v>0.009754425500583554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5206415</v>
+      </c>
+      <c r="H21">
+        <v>1.041283</v>
+      </c>
+      <c r="I21">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J21">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N21">
+        <v>386.726074</v>
+      </c>
+      <c r="O21">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P21">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q21">
+        <v>67.11521441882367</v>
+      </c>
+      <c r="R21">
+        <v>402.691286512942</v>
+      </c>
+      <c r="S21">
+        <v>0.02782188694930598</v>
+      </c>
+      <c r="T21">
+        <v>0.02173543722663781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5206415</v>
+      </c>
+      <c r="H22">
+        <v>1.041283</v>
+      </c>
+      <c r="I22">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J22">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N22">
+        <v>37.588765</v>
+      </c>
+      <c r="O22">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P22">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q22">
+        <v>6.523423664249167</v>
+      </c>
+      <c r="R22">
+        <v>39.140541985495</v>
+      </c>
+      <c r="S22">
+        <v>0.002704214793632015</v>
+      </c>
+      <c r="T22">
+        <v>0.00211262776681652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5206415</v>
+      </c>
+      <c r="H23">
+        <v>1.041283</v>
+      </c>
+      <c r="I23">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J23">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.279662</v>
+      </c>
+      <c r="N23">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P23">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q23">
+        <v>8.996509143172998</v>
+      </c>
+      <c r="R23">
+        <v>53.97905485903799</v>
+      </c>
+      <c r="S23">
+        <v>0.003729405656931876</v>
+      </c>
+      <c r="T23">
+        <v>0.002913542948995871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.483601755277516</v>
-      </c>
-      <c r="H13">
-        <v>0.483601755277516</v>
-      </c>
-      <c r="I13">
-        <v>0.08731494941137706</v>
-      </c>
-      <c r="J13">
-        <v>0.08731494941137706</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="N13">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="O13">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="P13">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="Q13">
-        <v>17.3505345636583</v>
-      </c>
-      <c r="R13">
-        <v>17.3505345636583</v>
-      </c>
-      <c r="S13">
-        <v>0.01001275877426124</v>
-      </c>
-      <c r="T13">
-        <v>0.01001275877426124</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5206415</v>
+      </c>
+      <c r="H24">
+        <v>1.041283</v>
+      </c>
+      <c r="I24">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J24">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N24">
+        <v>128.152127</v>
+      </c>
+      <c r="O24">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P24">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q24">
+        <v>22.24043854315683</v>
+      </c>
+      <c r="R24">
+        <v>133.442631258941</v>
+      </c>
+      <c r="S24">
+        <v>0.009219533487434576</v>
+      </c>
+      <c r="T24">
+        <v>0.00720262402547136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5206415</v>
+      </c>
+      <c r="H25">
+        <v>1.041283</v>
+      </c>
+      <c r="I25">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J25">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>36.0566465</v>
+      </c>
+      <c r="N25">
+        <v>72.113293</v>
+      </c>
+      <c r="O25">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P25">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q25">
+        <v>18.77258651872975</v>
+      </c>
+      <c r="R25">
+        <v>75.090346074919</v>
+      </c>
+      <c r="S25">
+        <v>0.007781972901269303</v>
+      </c>
+      <c r="T25">
+        <v>0.004053034068780268</v>
       </c>
     </row>
   </sheetData>
